--- a/biology/Botanique/Pedicularis/Pedicularis.xlsx
+++ b/biology/Botanique/Pedicularis/Pedicularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Pedicularis est un genre de plantes herbacées de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[1] ou des Orobanchaceae selon la classification APG III. Il comprend 982 espèces.
+Pedicularis est un genre de plantes herbacées de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981) ou des Orobanchaceae selon la classification APG III. Il comprend 982 espèces.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Pédiculaire est une francisation de Pedicularis. En latin, herba pedicularis désignait une plante employée contre les poux,  de pediculus, « pou »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Pédiculaire est une francisation de Pedicularis. En latin, herba pedicularis désignait une plante employée contre les poux,  de pediculus, « pou ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste de quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pedicularis angustifolia Benth.
 Pedicularis attolens Gray
